--- a/Training/NonVirtualizedTests/Data/rptfile_expected.xlsx
+++ b/Training/NonVirtualizedTests/Data/rptfile_expected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnuesse\Compuware\Workbench\workspace_main\LBP_Training\NonVirtualizedTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnuesse\git\Training\Training\NonVirtualizedTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4C0BE-09F6-403D-BB75-21422C3CFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E656C1-47C8-4324-8561-6CFBFF483B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17BACB9F-4A65-4DC6-83FF-917E4EEE6B9E}"/>
+    <workbookView xWindow="-33795" yWindow="-21600" windowWidth="29040" windowHeight="15840" xr2:uid="{17BACB9F-4A65-4DC6-83FF-917E4EEE6B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,14 +446,18 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
